--- a/创客论坛2015/高端论坛嘉宾列表.xlsx
+++ b/创客论坛2015/高端论坛嘉宾列表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Woody/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="43520" windowHeight="26720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Keynotes and panel" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="188">
   <si>
     <t>First Name</t>
   </si>
@@ -520,29 +520,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>An Intelligent System of Maker Culture and Education, Integrated</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>创客文化与教育交融的智慧系统</t>
-    <rPh sb="0" eb="1">
-      <t>chuang ke wen hua yu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jiao yu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jiao rong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhi hui</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Law</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -627,19 +604,45 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Ira Winder</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>David Li, MakerCollider</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ed Crawley, warm up video speech</t>
+  </si>
+  <si>
+    <t>Ira Winder, MIT Media Lab</t>
+  </si>
+  <si>
+    <t>孙宏斌</t>
+  </si>
+  <si>
+    <t>Zhou Rong, Architecture</t>
+  </si>
+  <si>
+    <t>许素朱, 台北艺术大学</t>
+  </si>
+  <si>
+    <t>Tudor Tarlev</t>
+  </si>
+  <si>
+    <t>融合创客文化与学历教育的智慧系统</t>
+  </si>
+  <si>
+    <t>Fusing Maker Culture and Formal Education in an Intelligent System</t>
+  </si>
+  <si>
+    <t>史元春</t>
+  </si>
+  <si>
+    <t>Tom Igor, NYU（不知名字是否正确）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -674,11 +677,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
@@ -690,8 +695,14 @@
       <sz val="9"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +733,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -741,10 +758,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -788,17 +806,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1073,23 +1098,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="17" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
     <col min="9" max="9" width="213.33203125" bestFit="1" customWidth="1"/>
@@ -1099,60 +1124,64 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="21" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="18"/>
-      <c r="C3" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="2:8" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1160,490 +1189,399 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="15" t="s">
-        <v>178</v>
+      <c r="C7" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D13" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="D14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G27" s="5" t="str">
         <f>HYPERLINK("http://ranman.org","http://ranman.org")</f>
         <v>http://ranman.org</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G28" s="5" t="str">
         <f>HYPERLINK("http://morgante.net","http://morgante.net")</f>
         <v>http://morgante.net</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G29" s="5" t="str">
         <f>HYPERLINK("http://cye.me","http://cye.me")</f>
         <v>http://cye.me</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="s">
-        <v>59</v>
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>67</v>
+      <c r="A31" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="5" t="str">
-        <f>HYPERLINK("http://www.bellycard.com","http://www.bellycard.com")</f>
-        <v>http://www.bellycard.com</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="5" t="str">
-        <f>HYPERLINK("http://www.soaresbumachar.com.br/eng/equipe_int.php?id=83","http://www.soaresbumachar.com.br/eng/equipe_int.php?id=83")</f>
-        <v>http://www.soaresbumachar.com.br/eng/equipe_int.php?id=83</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>18</v>
+      <c r="A32" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>82</v>
+      <c r="A33" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>86</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
         <v>59</v>
@@ -1653,210 +1591,241 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="5" t="str">
+        <f>HYPERLINK("http://www.bellycard.com","http://www.bellycard.com")</f>
+        <v>http://www.bellycard.com</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="5" t="str">
+        <f>HYPERLINK("http://www.soaresbumachar.com.br/eng/equipe_int.php?id=83","http://www.soaresbumachar.com.br/eng/equipe_int.php?id=83")</f>
+        <v>http://www.soaresbumachar.com.br/eng/equipe_int.php?id=83</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="5" t="str">
+      <c r="G38" s="5" t="str">
         <f>HYPERLINK("http://nirbenita.me","http://nirbenita.me")</f>
         <v>http://nirbenita.me</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K38" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="5" t="str">
+      <c r="G39" s="5" t="str">
         <f>HYPERLINK("http://nick.sahler.co","http://nick.sahler.co")</f>
         <v>http://nick.sahler.co</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K39" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K40" s="6" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>54</v>
@@ -1867,157 +1836,255 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>133</v>
+      <c r="A43" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>136</v>
+      <c r="A44" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="6" t="s">
+      <c r="F45" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="K45" s="6" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>146</v>
+      <c r="A46" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>150</v>
+      <c r="A47" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K47" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K51" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2029,14 +2096,14 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" display="http://ranman.org/"/>
-    <hyperlink ref="G24" r:id="rId2" display="http://morgante.net/"/>
-    <hyperlink ref="G25" r:id="rId3" display="http://cye.me/"/>
-    <hyperlink ref="G31" r:id="rId4" display="http://www.bellycard.com/"/>
-    <hyperlink ref="G32" r:id="rId5" display="http://www.soaresbumachar.com.br/eng/equipe_int.php?id=83"/>
-    <hyperlink ref="G34" r:id="rId6" display="http://nirbenita.me/"/>
-    <hyperlink ref="G35" r:id="rId7" display="http://nick.sahler.co/"/>
-    <hyperlink ref="G45" r:id="rId8"/>
+    <hyperlink ref="G27" r:id="rId1" display="http://ranman.org/"/>
+    <hyperlink ref="G28" r:id="rId2" display="http://morgante.net/"/>
+    <hyperlink ref="G29" r:id="rId3" display="http://cye.me/"/>
+    <hyperlink ref="G35" r:id="rId4" display="http://www.bellycard.com/"/>
+    <hyperlink ref="G36" r:id="rId5" display="http://www.soaresbumachar.com.br/eng/equipe_int.php?id=83"/>
+    <hyperlink ref="G38" r:id="rId6" display="http://nirbenita.me/"/>
+    <hyperlink ref="G39" r:id="rId7" display="http://nick.sahler.co/"/>
+    <hyperlink ref="G49" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/创客论坛2015/高端论坛嘉宾列表.xlsx
+++ b/创客论坛2015/高端论坛嘉宾列表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Woody/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/创客论坛2015/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40020" windowHeight="25680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Keynotes and panel" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="189">
   <si>
     <t>First Name</t>
   </si>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Steve Austin</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Shawn Glasper</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -636,6 +632,14 @@
   </si>
   <si>
     <t>Tom Igor, NYU（不知名字是否正确）</t>
+  </si>
+  <si>
+    <t>Steve Austin, workshop</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bart Eddy, U Mich</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -822,8 +826,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1101,10 +1105,10 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="17" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="17" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C12"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1136,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1145,7 +1149,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,7 +1166,7 @@
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -1172,7 +1176,7 @@
     </row>
     <row r="5" spans="2:8" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -1190,18 +1194,18 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1210,7 +1214,7 @@
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1219,7 +1223,7 @@
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="14"/>
       <c r="F10" s="14"/>
@@ -1227,7 +1231,7 @@
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1236,7 +1240,7 @@
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1294,13 +1298,16 @@
       <c r="C16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E16" t="s">
-        <v>174</v>
+      <c r="E16" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
@@ -1313,7 +1320,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
